--- a/powerapp/data/dp_incomer.xlsx
+++ b/powerapp/data/dp_incomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D130A3-D7B4-834F-90ED-6F48E44ECFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0023FA1E-914E-0648-8287-386905645F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30580" yWindow="3820" windowWidth="15920" windowHeight="15580" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="-34400" yWindow="620" windowWidth="34400" windowHeight="20980" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ls_incomer_dp" sheetId="1" r:id="rId1"/>
@@ -2225,11 +2225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E649"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A549" sqref="A548:XFD549"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2259,7 +2258,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>284</v>
       </c>
@@ -2276,7 +2275,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>284</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>285</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>285</v>
       </c>
@@ -2327,7 +2326,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>286</v>
       </c>
@@ -2344,7 +2343,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>286</v>
       </c>
@@ -2361,7 +2360,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>287</v>
       </c>
@@ -2378,7 +2377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>287</v>
       </c>
@@ -2395,7 +2394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>288</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>288</v>
       </c>
@@ -2429,7 +2428,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>289</v>
       </c>
@@ -2446,7 +2445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>289</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>290</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>290</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>291</v>
       </c>
@@ -2514,7 +2513,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>291</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>292</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>292</v>
       </c>
@@ -2565,7 +2564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>293</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>293</v>
       </c>
@@ -2599,7 +2598,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>294</v>
       </c>
@@ -2616,7 +2615,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>294</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>295</v>
       </c>
@@ -2650,7 +2649,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>295</v>
       </c>
@@ -2667,7 +2666,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>296</v>
       </c>
@@ -2684,7 +2683,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>296</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>297</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>297</v>
       </c>
@@ -2735,7 +2734,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>298</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>298</v>
       </c>
@@ -2769,7 +2768,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>299</v>
       </c>
@@ -2786,7 +2785,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>299</v>
       </c>
@@ -2803,7 +2802,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>300</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>300</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>301</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>301</v>
       </c>
@@ -2871,7 +2870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>302</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>302</v>
       </c>
@@ -2905,7 +2904,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>303</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>303</v>
       </c>
@@ -2939,7 +2938,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>304</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>304</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>305</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>305</v>
       </c>
@@ -3007,7 +3006,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>306</v>
       </c>
@@ -3024,7 +3023,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>306</v>
       </c>
@@ -3041,7 +3040,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>307</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>307</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>308</v>
       </c>
@@ -3092,7 +3091,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>308</v>
       </c>
@@ -3109,7 +3108,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>309</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>309</v>
       </c>
@@ -3143,7 +3142,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>310</v>
       </c>
@@ -3160,7 +3159,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>310</v>
       </c>
@@ -3177,7 +3176,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>310</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>311</v>
       </c>
@@ -3211,7 +3210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>311</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>312</v>
       </c>
@@ -3245,7 +3244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>312</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>313</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>313</v>
       </c>
@@ -3296,7 +3295,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>314</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>314</v>
       </c>
@@ -3330,7 +3329,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>315</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>315</v>
       </c>
@@ -3364,7 +3363,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>316</v>
       </c>
@@ -3381,7 +3380,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>316</v>
       </c>
@@ -3398,7 +3397,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>317</v>
       </c>
@@ -3415,7 +3414,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>317</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>318</v>
       </c>
@@ -3449,7 +3448,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>318</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>318</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>319</v>
       </c>
@@ -3500,7 +3499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>319</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>320</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>320</v>
       </c>
@@ -3551,7 +3550,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>579</v>
       </c>
@@ -3568,7 +3567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>579</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>321</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>321</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>322</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>322</v>
       </c>
@@ -3653,7 +3652,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>322</v>
       </c>
@@ -3670,7 +3669,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>323</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>323</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>324</v>
       </c>
@@ -3721,7 +3720,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>324</v>
       </c>
@@ -3738,7 +3737,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>324</v>
       </c>
@@ -3755,7 +3754,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>325</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>325</v>
       </c>
@@ -3789,7 +3788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>326</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>326</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>327</v>
       </c>
@@ -3840,7 +3839,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>327</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>328</v>
       </c>
@@ -3874,7 +3873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>328</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>329</v>
       </c>
@@ -3908,7 +3907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>329</v>
       </c>
@@ -3925,7 +3924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>330</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:5" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>330</v>
       </c>
@@ -3959,7 +3958,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>331</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>331</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>332</v>
       </c>
@@ -4010,7 +4009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>332</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>429</v>
       </c>
@@ -4044,7 +4043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>429</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>430</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>430</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>431</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>431</v>
       </c>
@@ -4129,7 +4128,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>333</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>333</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>334</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>334</v>
       </c>
@@ -4197,7 +4196,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>335</v>
       </c>
@@ -4214,7 +4213,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>335</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>336</v>
       </c>
@@ -4248,7 +4247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>336</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>337</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>337</v>
       </c>
@@ -4299,7 +4298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>338</v>
       </c>
@@ -4316,7 +4315,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>339</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>339</v>
       </c>
@@ -4350,7 +4349,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>340</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>340</v>
       </c>
@@ -4384,7 +4383,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>341</v>
       </c>
@@ -4401,7 +4400,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>341</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>342</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>342</v>
       </c>
@@ -4452,7 +4451,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>343</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>343</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>343</v>
       </c>
@@ -4503,7 +4502,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>344</v>
       </c>
@@ -4520,7 +4519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>344</v>
       </c>
@@ -4537,7 +4536,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="136" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>345</v>
       </c>
@@ -4554,7 +4553,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>345</v>
       </c>
@@ -4571,7 +4570,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="138" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>346</v>
       </c>
@@ -4588,7 +4587,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>346</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>346</v>
       </c>
@@ -4622,7 +4621,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>347</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>347</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>348</v>
       </c>
@@ -4673,7 +4672,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>348</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>349</v>
       </c>
@@ -4707,7 +4706,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="146" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>349</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>350</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>350</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>351</v>
       </c>
@@ -4775,7 +4774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>351</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>352</v>
       </c>
@@ -4809,7 +4808,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>352</v>
       </c>
@@ -4826,7 +4825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>353</v>
       </c>
@@ -4843,7 +4842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>353</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>353</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>354</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>354</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>355</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>355</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>356</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>356</v>
       </c>
@@ -4979,7 +4978,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>432</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>432</v>
       </c>
@@ -5013,7 +5012,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>433</v>
       </c>
@@ -5030,7 +5029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>433</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>433</v>
       </c>
@@ -5064,7 +5063,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>434</v>
       </c>
@@ -5081,7 +5080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>434</v>
       </c>
@@ -5098,7 +5097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>435</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>435</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>436</v>
       </c>
@@ -5149,7 +5148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>436</v>
       </c>
@@ -5166,7 +5165,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>437</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>437</v>
       </c>
@@ -5200,7 +5199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>438</v>
       </c>
@@ -5217,7 +5216,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>438</v>
       </c>
@@ -5234,7 +5233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>439</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>439</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>440</v>
       </c>
@@ -5285,7 +5284,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>440</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>441</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>441</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>442</v>
       </c>
@@ -5353,7 +5352,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>442</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>443</v>
       </c>
@@ -5387,7 +5386,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>443</v>
       </c>
@@ -5404,7 +5403,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>444</v>
       </c>
@@ -5421,7 +5420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>444</v>
       </c>
@@ -5438,7 +5437,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>445</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>446</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>446</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>447</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>447</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="194" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>357</v>
       </c>
@@ -5540,7 +5539,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>357</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>358</v>
       </c>
@@ -5574,7 +5573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
         <v>358</v>
       </c>
@@ -5591,7 +5590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
         <v>359</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>359</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>360</v>
       </c>
@@ -5642,7 +5641,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>360</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
         <v>361</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
         <v>361</v>
       </c>
@@ -5693,7 +5692,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
         <v>362</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
         <v>362</v>
       </c>
@@ -5727,7 +5726,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>586</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>586</v>
       </c>
@@ -5761,7 +5760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
         <v>363</v>
       </c>
@@ -5778,7 +5777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
         <v>363</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
         <v>364</v>
       </c>
@@ -5812,7 +5811,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
         <v>364</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
         <v>448</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
         <v>448</v>
       </c>
@@ -5863,7 +5862,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>449</v>
       </c>
@@ -5880,7 +5879,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>449</v>
       </c>
@@ -5897,7 +5896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>450</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
         <v>450</v>
       </c>
@@ -5931,7 +5930,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
         <v>451</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
         <v>451</v>
       </c>
@@ -5965,7 +5964,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
         <v>452</v>
       </c>
@@ -5982,7 +5981,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>452</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>453</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
         <v>453</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
         <v>454</v>
       </c>
@@ -6050,7 +6049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
         <v>454</v>
       </c>
@@ -6067,7 +6066,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
         <v>455</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
         <v>455</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
         <v>456</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>456</v>
       </c>
@@ -6135,7 +6134,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>457</v>
       </c>
@@ -6152,7 +6151,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>457</v>
       </c>
@@ -6169,7 +6168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
         <v>458</v>
       </c>
@@ -6186,7 +6185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
         <v>458</v>
       </c>
@@ -6203,7 +6202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
         <v>459</v>
       </c>
@@ -6220,7 +6219,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
         <v>459</v>
       </c>
@@ -6237,7 +6236,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
         <v>460</v>
       </c>
@@ -6254,7 +6253,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
         <v>460</v>
       </c>
@@ -6271,7 +6270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
         <v>461</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>461</v>
       </c>
@@ -6305,7 +6304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>462</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>462</v>
       </c>
@@ -6339,7 +6338,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>463</v>
       </c>
@@ -6356,7 +6355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>463</v>
       </c>
@@ -6373,7 +6372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
         <v>464</v>
       </c>
@@ -6390,7 +6389,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>464</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="246" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
         <v>365</v>
       </c>
@@ -6424,7 +6423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
         <v>365</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="248" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>366</v>
       </c>
@@ -6458,7 +6457,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>366</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="250" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>367</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
         <v>367</v>
       </c>
@@ -6509,7 +6508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="252" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
         <v>368</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="253" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
         <v>368</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="254" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>369</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="255" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>369</v>
       </c>
@@ -6577,7 +6576,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
         <v>369</v>
       </c>
@@ -6594,7 +6593,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
         <v>370</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
         <v>370</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
         <v>371</v>
       </c>
@@ -6645,7 +6644,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
         <v>371</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
         <v>372</v>
       </c>
@@ -6679,7 +6678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>372</v>
       </c>
@@ -6696,7 +6695,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>373</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="264" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>373</v>
       </c>
@@ -6730,7 +6729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="265" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
         <v>374</v>
       </c>
@@ -6747,7 +6746,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
         <v>374</v>
       </c>
@@ -6764,7 +6763,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
         <v>465</v>
       </c>
@@ -6781,7 +6780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
         <v>465</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
         <v>466</v>
       </c>
@@ -6815,7 +6814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
         <v>466</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
         <v>467</v>
       </c>
@@ -6849,7 +6848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
         <v>467</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>468</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>468</v>
       </c>
@@ -6900,7 +6899,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
         <v>375</v>
       </c>
@@ -6917,7 +6916,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
         <v>375</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
         <v>375</v>
       </c>
@@ -6951,7 +6950,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
         <v>376</v>
       </c>
@@ -6968,7 +6967,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
         <v>376</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
         <v>582</v>
       </c>
@@ -7002,7 +7001,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>582</v>
       </c>
@@ -7019,7 +7018,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>377</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>377</v>
       </c>
@@ -7053,7 +7052,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
         <v>378</v>
       </c>
@@ -7070,7 +7069,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
         <v>378</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
         <v>379</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
         <v>379</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
         <v>380</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
         <v>380</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>380</v>
       </c>
@@ -7172,7 +7171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>381</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="292" spans="1:5" s="7" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
         <v>381</v>
       </c>
@@ -7206,7 +7205,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="293" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
         <v>382</v>
       </c>
@@ -7223,7 +7222,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="294" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>382</v>
       </c>
@@ -7240,7 +7239,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="295" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>383</v>
       </c>
@@ -7257,7 +7256,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>383</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="297" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>384</v>
       </c>
@@ -7291,7 +7290,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>384</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>385</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>385</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
         <v>386</v>
       </c>
@@ -7359,7 +7358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
         <v>386</v>
       </c>
@@ -7376,7 +7375,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
         <v>387</v>
       </c>
@@ -7393,7 +7392,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
         <v>387</v>
       </c>
@@ -7410,7 +7409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
         <v>388</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
         <v>388</v>
       </c>
@@ -7444,7 +7443,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>389</v>
       </c>
@@ -7461,7 +7460,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>389</v>
       </c>
@@ -7478,7 +7477,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
         <v>390</v>
       </c>
@@ -7495,7 +7494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
         <v>390</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
         <v>391</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
         <v>391</v>
       </c>
@@ -7546,7 +7545,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
         <v>392</v>
       </c>
@@ -7563,7 +7562,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
         <v>392</v>
       </c>
@@ -7580,7 +7579,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>393</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>393</v>
       </c>
@@ -7614,7 +7613,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>394</v>
       </c>
@@ -7631,7 +7630,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
         <v>394</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
         <v>394</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
         <v>394</v>
       </c>
@@ -7682,7 +7681,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
         <v>395</v>
       </c>
@@ -7699,7 +7698,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>395</v>
       </c>
@@ -7716,7 +7715,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>395</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
         <v>396</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>396</v>
       </c>
@@ -7767,7 +7766,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
         <v>397</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
         <v>397</v>
       </c>
@@ -7801,7 +7800,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="328" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
         <v>398</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
         <v>398</v>
       </c>
@@ -7835,7 +7834,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>399</v>
       </c>
@@ -7852,7 +7851,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>399</v>
       </c>
@@ -7869,7 +7868,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>469</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
         <v>469</v>
       </c>
@@ -7903,7 +7902,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
         <v>470</v>
       </c>
@@ -7920,7 +7919,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
         <v>470</v>
       </c>
@@ -7937,7 +7936,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
         <v>470</v>
       </c>
@@ -7954,7 +7953,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
         <v>471</v>
       </c>
@@ -7971,7 +7970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
         <v>471</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
         <v>472</v>
       </c>
@@ -8005,7 +8004,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>472</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>473</v>
       </c>
@@ -8039,7 +8038,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>473</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>474</v>
       </c>
@@ -8073,7 +8072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>474</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
         <v>475</v>
       </c>
@@ -8107,7 +8106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>475</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
         <v>476</v>
       </c>
@@ -8141,7 +8140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>476</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
         <v>477</v>
       </c>
@@ -8175,7 +8174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>477</v>
       </c>
@@ -8192,7 +8191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>478</v>
       </c>
@@ -8209,7 +8208,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>478</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
         <v>479</v>
       </c>
@@ -8243,7 +8242,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
         <v>479</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
         <v>480</v>
       </c>
@@ -8277,7 +8276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
         <v>480</v>
       </c>
@@ -8294,7 +8293,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
         <v>481</v>
       </c>
@@ -8311,7 +8310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
         <v>481</v>
       </c>
@@ -8328,7 +8327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
         <v>482</v>
       </c>
@@ -8345,7 +8344,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>482</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>483</v>
       </c>
@@ -8379,7 +8378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
         <v>483</v>
       </c>
@@ -8396,7 +8395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
         <v>483</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
         <v>483</v>
       </c>
@@ -8430,7 +8429,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
         <v>484</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
         <v>484</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
         <v>485</v>
       </c>
@@ -8481,7 +8480,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>485</v>
       </c>
@@ -8498,7 +8497,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>486</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>486</v>
       </c>
@@ -8532,7 +8531,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
         <v>486</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>487</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
         <v>487</v>
       </c>
@@ -8583,7 +8582,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
         <v>488</v>
       </c>
@@ -8600,7 +8599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
         <v>488</v>
       </c>
@@ -8617,7 +8616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
         <v>489</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
         <v>489</v>
       </c>
@@ -8651,7 +8650,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>490</v>
       </c>
@@ -8668,7 +8667,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>490</v>
       </c>
@@ -8685,7 +8684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
         <v>491</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
         <v>491</v>
       </c>
@@ -8719,7 +8718,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
         <v>492</v>
       </c>
@@ -8736,7 +8735,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
         <v>492</v>
       </c>
@@ -8753,7 +8752,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
         <v>400</v>
       </c>
@@ -8770,7 +8769,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
         <v>400</v>
       </c>
@@ -8787,7 +8786,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>401</v>
       </c>
@@ -8804,7 +8803,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>401</v>
       </c>
@@ -8821,7 +8820,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>402</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>402</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>403</v>
       </c>
@@ -8872,7 +8871,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
         <v>403</v>
       </c>
@@ -8889,7 +8888,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>404</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
         <v>404</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
         <v>404</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>493</v>
       </c>
@@ -8957,7 +8956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>493</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
         <v>494</v>
       </c>
@@ -8991,7 +8990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
         <v>494</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
         <v>405</v>
       </c>
@@ -9025,7 +9024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
         <v>405</v>
       </c>
@@ -9042,7 +9041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
         <v>406</v>
       </c>
@@ -9059,7 +9058,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
         <v>406</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>407</v>
       </c>
@@ -9093,7 +9092,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>407</v>
       </c>
@@ -9110,7 +9109,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>407</v>
       </c>
@@ -9127,7 +9126,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
         <v>408</v>
       </c>
@@ -9144,7 +9143,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
         <v>408</v>
       </c>
@@ -9161,7 +9160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
         <v>495</v>
       </c>
@@ -9178,7 +9177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
         <v>495</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>496</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>496</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>497</v>
       </c>
@@ -9246,7 +9245,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
         <v>497</v>
       </c>
@@ -9263,7 +9262,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
         <v>409</v>
       </c>
@@ -9280,7 +9279,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
         <v>409</v>
       </c>
@@ -9297,7 +9296,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
         <v>409</v>
       </c>
@@ -9314,7 +9313,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
         <v>410</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>410</v>
       </c>
@@ -9348,7 +9347,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>410</v>
       </c>
@@ -9365,7 +9364,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>411</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="421" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
         <v>411</v>
       </c>
@@ -9399,7 +9398,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
         <v>498</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
         <v>498</v>
       </c>
@@ -9433,7 +9432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
         <v>498</v>
       </c>
@@ -9450,7 +9449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
         <v>499</v>
       </c>
@@ -9467,7 +9466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
         <v>499</v>
       </c>
@@ -9484,7 +9483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>500</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
         <v>500</v>
       </c>
@@ -9518,7 +9517,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="429" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>412</v>
       </c>
@@ -9535,7 +9534,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
         <v>412</v>
       </c>
@@ -9552,7 +9551,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
         <v>501</v>
       </c>
@@ -9569,7 +9568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>501</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>502</v>
       </c>
@@ -9603,7 +9602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>502</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>503</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>503</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
         <v>506</v>
       </c>
@@ -9773,7 +9772,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
         <v>506</v>
       </c>
@@ -9790,7 +9789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
         <v>507</v>
       </c>
@@ -9807,7 +9806,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
         <v>507</v>
       </c>
@@ -9824,7 +9823,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
         <v>508</v>
       </c>
@@ -9841,7 +9840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
         <v>508</v>
       </c>
@@ -9858,7 +9857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
         <v>509</v>
       </c>
@@ -9875,7 +9874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
         <v>509</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
         <v>510</v>
       </c>
@@ -9909,7 +9908,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
         <v>510</v>
       </c>
@@ -9926,7 +9925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
         <v>413</v>
       </c>
@@ -9943,7 +9942,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
         <v>413</v>
       </c>
@@ -9960,7 +9959,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="455" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
         <v>511</v>
       </c>
@@ -9977,7 +9976,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="456" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
         <v>511</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="457" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
         <v>512</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="458" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
         <v>512</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="459" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
         <v>513</v>
       </c>
@@ -10045,7 +10044,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="460" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
         <v>513</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="461" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
         <v>514</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="462" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
         <v>514</v>
       </c>
@@ -10096,7 +10095,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="463" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
         <v>515</v>
       </c>
@@ -10113,7 +10112,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="464" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
         <v>515</v>
       </c>
@@ -10130,7 +10129,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
         <v>414</v>
       </c>
@@ -10147,7 +10146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
         <v>414</v>
       </c>
@@ -10164,7 +10163,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>516</v>
       </c>
@@ -10181,7 +10180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
         <v>516</v>
       </c>
@@ -10198,7 +10197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
         <v>516</v>
       </c>
@@ -10215,7 +10214,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
         <v>516</v>
       </c>
@@ -10232,7 +10231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
         <v>517</v>
       </c>
@@ -10249,7 +10248,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
         <v>517</v>
       </c>
@@ -10266,7 +10265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
         <v>518</v>
       </c>
@@ -10283,7 +10282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
         <v>518</v>
       </c>
@@ -10300,7 +10299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
         <v>520</v>
       </c>
@@ -10317,7 +10316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
         <v>520</v>
       </c>
@@ -10334,7 +10333,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
         <v>519</v>
       </c>
@@ -10351,7 +10350,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>519</v>
       </c>
@@ -10368,7 +10367,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>519</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>415</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>415</v>
       </c>
@@ -10419,7 +10418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>416</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
         <v>416</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>417</v>
       </c>
@@ -10470,7 +10469,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
         <v>417</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>418</v>
       </c>
@@ -10504,7 +10503,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
         <v>418</v>
       </c>
@@ -10521,7 +10520,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
         <v>419</v>
       </c>
@@ -10538,7 +10537,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
         <v>419</v>
       </c>
@@ -10555,7 +10554,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>420</v>
       </c>
@@ -10572,7 +10571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
         <v>420</v>
       </c>
@@ -10589,7 +10588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
         <v>421</v>
       </c>
@@ -10606,7 +10605,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
         <v>421</v>
       </c>
@@ -10623,7 +10622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
         <v>422</v>
       </c>
@@ -10640,7 +10639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
         <v>422</v>
       </c>
@@ -10657,7 +10656,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
         <v>521</v>
       </c>
@@ -10674,7 +10673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
         <v>521</v>
       </c>
@@ -10691,7 +10690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
         <v>521</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
         <v>521</v>
       </c>
@@ -10725,7 +10724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
         <v>522</v>
       </c>
@@ -10742,7 +10741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2" t="s">
         <v>522</v>
       </c>
@@ -10759,7 +10758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>523</v>
       </c>
@@ -10776,7 +10775,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>523</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>524</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>524</v>
       </c>
@@ -10827,7 +10826,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>525</v>
       </c>
@@ -10844,7 +10843,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2" t="s">
         <v>525</v>
       </c>
@@ -10861,7 +10860,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>526</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="s">
         <v>526</v>
       </c>
@@ -10895,7 +10894,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A510" s="2" t="s">
         <v>526</v>
       </c>
@@ -10912,7 +10911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A511" s="2" t="s">
         <v>527</v>
       </c>
@@ -10929,7 +10928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A512" s="2" t="s">
         <v>527</v>
       </c>
@@ -10946,7 +10945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A513" s="2" t="s">
         <v>528</v>
       </c>
@@ -10963,7 +10962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A514" s="2" t="s">
         <v>528</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A515" s="2" t="s">
         <v>528</v>
       </c>
@@ -10997,7 +10996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A516" s="2" t="s">
         <v>529</v>
       </c>
@@ -11014,7 +11013,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A517" s="2" t="s">
         <v>529</v>
       </c>
@@ -11031,7 +11030,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A518" s="2" t="s">
         <v>530</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A519" s="2" t="s">
         <v>530</v>
       </c>
@@ -11065,7 +11064,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A520" s="2" t="s">
         <v>531</v>
       </c>
@@ -11082,7 +11081,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A521" s="2" t="s">
         <v>531</v>
       </c>
@@ -11099,7 +11098,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A522" s="2" t="s">
         <v>532</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A523" s="2" t="s">
         <v>532</v>
       </c>
@@ -11133,7 +11132,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A524" s="2" t="s">
         <v>533</v>
       </c>
@@ -11150,7 +11149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A525" s="2" t="s">
         <v>533</v>
       </c>
@@ -11167,7 +11166,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A526" s="2" t="s">
         <v>534</v>
       </c>
@@ -11184,7 +11183,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A527" s="2" t="s">
         <v>534</v>
       </c>
@@ -11201,7 +11200,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A528" s="2" t="s">
         <v>535</v>
       </c>
@@ -11218,7 +11217,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
         <v>535</v>
       </c>
@@ -11235,7 +11234,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
         <v>536</v>
       </c>
@@ -11252,7 +11251,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="531" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
         <v>536</v>
       </c>
@@ -11269,7 +11268,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="532" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
         <v>537</v>
       </c>
@@ -11286,7 +11285,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="533" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2" t="s">
         <v>537</v>
       </c>
@@ -11303,7 +11302,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="534" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2" t="s">
         <v>492</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="535" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2" t="s">
         <v>492</v>
       </c>
@@ -11337,7 +11336,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="536" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
         <v>499</v>
       </c>
@@ -11354,7 +11353,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="537" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
         <v>499</v>
       </c>
@@ -11371,7 +11370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="538" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
         <v>538</v>
       </c>
@@ -11388,7 +11387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="539" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
         <v>538</v>
       </c>
@@ -11405,7 +11404,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="540" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
         <v>431</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="541" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2" t="s">
         <v>431</v>
       </c>
@@ -11439,7 +11438,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="542" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>539</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="543" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>539</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="544" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>540</v>
       </c>
@@ -11490,7 +11489,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="545" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>540</v>
       </c>
@@ -11507,7 +11506,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="546" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>541</v>
       </c>
@@ -11524,7 +11523,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="547" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>541</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="548" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2" t="s">
         <v>542</v>
       </c>
@@ -11558,7 +11557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="549" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>542</v>
       </c>
@@ -11575,7 +11574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="550" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="s">
         <v>543</v>
       </c>
@@ -11592,7 +11591,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="551" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2" t="s">
         <v>543</v>
       </c>
@@ -11609,7 +11608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="552" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2" t="s">
         <v>544</v>
       </c>
@@ -11626,7 +11625,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="553" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2" t="s">
         <v>544</v>
       </c>
@@ -11643,7 +11642,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="554" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
         <v>545</v>
       </c>
@@ -11660,7 +11659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="555" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
         <v>545</v>
       </c>
@@ -11677,7 +11676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="556" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>546</v>
       </c>
@@ -11694,7 +11693,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="557" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
         <v>546</v>
       </c>
@@ -11711,7 +11710,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="558" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
         <v>547</v>
       </c>
@@ -11728,7 +11727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="559" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2" t="s">
         <v>547</v>
       </c>
@@ -11745,7 +11744,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="560" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2" t="s">
         <v>548</v>
       </c>
@@ -11762,7 +11761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="561" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2" t="s">
         <v>548</v>
       </c>
@@ -11779,7 +11778,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="562" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
         <v>477</v>
       </c>
@@ -11796,7 +11795,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="563" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2" t="s">
         <v>477</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="564" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2" t="s">
         <v>478</v>
       </c>
@@ -11830,7 +11829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="565" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2" t="s">
         <v>478</v>
       </c>
@@ -11847,7 +11846,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="566" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2" t="s">
         <v>549</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="567" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2" t="s">
         <v>549</v>
       </c>
@@ -11881,7 +11880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="568" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>522</v>
       </c>
@@ -11898,7 +11897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="569" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2" t="s">
         <v>522</v>
       </c>
@@ -11915,7 +11914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="570" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2" t="s">
         <v>550</v>
       </c>
@@ -11932,7 +11931,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="571" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2" t="s">
         <v>550</v>
       </c>
@@ -11949,7 +11948,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="572" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
         <v>551</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="573" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
         <v>551</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="574" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
         <v>552</v>
       </c>
@@ -12000,7 +11999,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="575" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
         <v>552</v>
       </c>
@@ -12017,7 +12016,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="576" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
         <v>466</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="577" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2" t="s">
         <v>466</v>
       </c>
@@ -12051,7 +12050,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="578" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2" t="s">
         <v>462</v>
       </c>
@@ -12068,7 +12067,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="579" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
         <v>462</v>
       </c>
@@ -12085,7 +12084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="580" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
         <v>553</v>
       </c>
@@ -12102,7 +12101,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="581" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
         <v>553</v>
       </c>
@@ -12119,7 +12118,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="582" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
         <v>554</v>
       </c>
@@ -12136,7 +12135,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="583" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
         <v>554</v>
       </c>
@@ -12153,7 +12152,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="584" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
         <v>555</v>
       </c>
@@ -12170,7 +12169,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="585" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
         <v>555</v>
       </c>
@@ -12187,7 +12186,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="586" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
         <v>556</v>
       </c>
@@ -12204,7 +12203,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="587" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
         <v>556</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="588" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
         <v>557</v>
       </c>
@@ -12238,7 +12237,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="589" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
         <v>557</v>
       </c>
@@ -12255,7 +12254,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="590" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>558</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="591" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
         <v>558</v>
       </c>
@@ -12289,7 +12288,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="592" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
         <v>559</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="593" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
         <v>559</v>
       </c>
@@ -12323,7 +12322,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="594" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
         <v>560</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="595" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
         <v>560</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="596" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
         <v>561</v>
       </c>
@@ -12374,7 +12373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="597" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
         <v>561</v>
       </c>
@@ -12391,7 +12390,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="598" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="s">
         <v>562</v>
       </c>
@@ -12408,7 +12407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="599" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2" t="s">
         <v>562</v>
       </c>
@@ -12425,7 +12424,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="600" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2" t="s">
         <v>563</v>
       </c>
@@ -12442,7 +12441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="601" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
         <v>563</v>
       </c>
@@ -12459,7 +12458,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="602" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2" t="s">
         <v>564</v>
       </c>
@@ -12476,7 +12475,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="603" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
         <v>564</v>
       </c>
@@ -12493,7 +12492,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="604" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2" t="s">
         <v>565</v>
       </c>
@@ -12510,7 +12509,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="605" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="s">
         <v>565</v>
       </c>
@@ -12527,7 +12526,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="606" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2" t="s">
         <v>566</v>
       </c>
@@ -12544,7 +12543,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="607" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2" t="s">
         <v>566</v>
       </c>
@@ -12561,7 +12560,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="608" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="s">
         <v>567</v>
       </c>
@@ -12578,7 +12577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="609" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>567</v>
       </c>
@@ -12595,7 +12594,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="610" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
         <v>568</v>
       </c>
@@ -12612,7 +12611,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="611" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
         <v>568</v>
       </c>
@@ -12629,7 +12628,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="612" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
         <v>569</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="613" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="s">
         <v>569</v>
       </c>
@@ -12663,7 +12662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="614" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
         <v>570</v>
       </c>
@@ -12680,7 +12679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="615" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
         <v>570</v>
       </c>
@@ -12697,7 +12696,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="616" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
         <v>571</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="617" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2" t="s">
         <v>571</v>
       </c>
@@ -12731,7 +12730,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="618" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2" t="s">
         <v>572</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="619" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2" t="s">
         <v>572</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="620" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2" t="s">
         <v>511</v>
       </c>
@@ -12782,7 +12781,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="621" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2" t="s">
         <v>511</v>
       </c>
@@ -12799,7 +12798,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="622" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2" t="s">
         <v>573</v>
       </c>
@@ -12816,7 +12815,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="623" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="s">
         <v>573</v>
       </c>
@@ -12833,7 +12832,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="624" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2" t="s">
         <v>573</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="625" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>573</v>
       </c>
@@ -12867,7 +12866,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="626" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>574</v>
       </c>
@@ -12884,7 +12883,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="627" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
         <v>574</v>
       </c>
@@ -12901,7 +12900,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="628" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
         <v>575</v>
       </c>
@@ -12918,7 +12917,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="629" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
         <v>575</v>
       </c>
@@ -12935,7 +12934,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="630" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="s">
         <v>576</v>
       </c>
@@ -12952,7 +12951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="631" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2" t="s">
         <v>576</v>
       </c>
@@ -12969,7 +12968,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="632" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2" t="s">
         <v>577</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="633" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2" t="s">
         <v>577</v>
       </c>
@@ -13003,7 +13002,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="634" spans="1:5" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2" t="s">
         <v>578</v>
       </c>
@@ -13020,7 +13019,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A635" s="2" t="s">
         <v>578</v>
       </c>
@@ -13037,7 +13036,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A636" s="2" t="s">
         <v>423</v>
       </c>
@@ -13054,7 +13053,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A637" s="2" t="s">
         <v>423</v>
       </c>
@@ -13071,7 +13070,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A638" s="2" t="s">
         <v>424</v>
       </c>
@@ -13088,7 +13087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A639" s="2" t="s">
         <v>424</v>
       </c>
@@ -13105,7 +13104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
         <v>425</v>
       </c>
@@ -13122,7 +13121,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="s">
         <v>425</v>
       </c>
@@ -13139,7 +13138,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="s">
         <v>426</v>
       </c>
@@ -13156,7 +13155,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
         <v>426</v>
       </c>
@@ -13173,7 +13172,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
         <v>427</v>
       </c>
@@ -13190,7 +13189,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
         <v>427</v>
       </c>
@@ -13207,7 +13206,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
         <v>428</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="s">
         <v>428</v>
       </c>
@@ -13241,7 +13240,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="s">
         <v>588</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A649" s="2" t="s">
         <v>588</v>
       </c>
@@ -13277,13 +13276,7 @@
     </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A1:E649" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="BRNG"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E649" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/powerapp/data/dp_incomer.xlsx
+++ b/powerapp/data/dp_incomer.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/externalDrive/code-gym/work/powerapp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0023FA1E-914E-0648-8287-386905645F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837FDDE1-5315-B642-8C0C-7D60F13FC97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34400" yWindow="620" windowWidth="34400" windowHeight="20980" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
+    <workbookView xWindow="-11580" yWindow="2320" windowWidth="11580" windowHeight="19180" xr2:uid="{955B3BBE-6EC3-4CB4-BEB6-AB762050D1CD}"/>
   </bookViews>
   <sheets>
     <sheet name="ls_incomer_dp" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ls_incomer_dp!$A$1:$E$649</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ls_incomer_dp!$A$1:$E$657</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3002" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3094" uniqueCount="605">
   <si>
     <t>kV</t>
   </si>
@@ -1809,6 +1809,51 @@
   </si>
   <si>
     <t>ASTR</t>
+  </si>
+  <si>
+    <t>uiam_33</t>
+  </si>
+  <si>
+    <t>UIAM</t>
+  </si>
+  <si>
+    <t>btrz_33</t>
+  </si>
+  <si>
+    <t>btrz_11</t>
+  </si>
+  <si>
+    <t>BTRZ</t>
+  </si>
+  <si>
+    <t>pjyc_33</t>
+  </si>
+  <si>
+    <t>PJYC</t>
+  </si>
+  <si>
+    <t>kjng_11</t>
+  </si>
+  <si>
+    <t>kjng_33</t>
+  </si>
+  <si>
+    <t>KJNG</t>
+  </si>
+  <si>
+    <t>pmju_11</t>
+  </si>
+  <si>
+    <t>pmju_33</t>
+  </si>
+  <si>
+    <t>PMJU</t>
+  </si>
+  <si>
+    <t>rasa_11</t>
+  </si>
+  <si>
+    <t>RASA</t>
   </si>
 </sst>
 </file>
@@ -2225,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}">
-  <dimension ref="A1:E649"/>
+  <dimension ref="A1:E669"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A623" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F665" sqref="F665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13274,9 +13319,349 @@
         <v>195</v>
       </c>
     </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A650" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D650" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A651" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C651" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A652" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C652" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D652" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E652" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A653" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C653" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D653" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E653" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A654" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D654" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A655" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C655" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D655" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A656" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C656" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D656" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A657" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C657" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D657" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A658" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D658" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E658" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A659" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C659" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D659" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E659" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A660" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C660" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D660" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A661" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C661" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D661" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A662" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E662" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A663" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C663" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D663" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E663" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A664" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C664" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D664" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E664" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A665" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C665" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D665" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E665" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A666" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C666" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D666" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E666" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A667" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C667" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D667" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A668" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C668" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D668" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E668" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A669" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C669" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E669" s="1">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection autoFilter="0"/>
-  <autoFilter ref="A1:E649" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}"/>
+  <autoFilter ref="A1:E657" xr:uid="{AC278235-0322-4A5E-A642-ABE48087B759}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
